--- a/Dataset/Folds/Fold_2/Excel/7.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/7.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4536" uniqueCount="525">
   <si>
     <t>Doi</t>
   </si>
@@ -1699,6 +1699,137 @@
   </si>
   <si>
     <t>[Yun%Tang%NULL%1,                                Yongran%Wu%NULL%1,                                Fangfang%Zhu%NULL%1,                                Xiaobo%Yang%NULL%1,                                Chaolin%Huang%NULL%1,                                Guo%Hou%NULL%1,                                Wenhao%Xu%NULL%1,                                Ming%Hu%NULL%1,                                Lu%Zhang%NULL%1,                                Aiguo%Cheng%NULL%1,                                Zhengqin%Xu%NULL%1,                                Boyi%Liu%NULL%1,                                Song%Hu%NULL%1,                                Guochao%Zhu%NULL%1,                                Xuepeng%Fan%NULL%1,                                Xijing%Zhang%NULL%1,                                Yadong%Yang%NULL%1,                                Huibin%Feng%NULL%1,                                Lixia%Yu%NULL%1,                                Bing%Wang%NULL%1,                                Zhiqiang%Li%NULL%1,                                Yong%Peng%NULL%1,                                Zubo%Shen%NULL%1,                                Shouzhi%Fu%NULL%1,                                Yaqi%Ouyang%NULL%1,                                Jiqian%Xu%NULL%1,                                Xiaojing%Zou%NULL%1,                                Minghao%Fang%NULL%1,                                Zhui%Yu%NULL%1,                                Bo%Hu%NULL%1,                                You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                                 Jakub%Fronczek%NULL%1,                                 Peter Vernon%van Heerden%NULL%1,                                 Hans%Flaatten%NULL%1,                                 Bertrand%Guidet%NULL%1,                                 Dylan W.%De Lange%NULL%1,                                 Jesper%Fjølner%NULL%1,                                 Susannah%Leaver%NULL%1,                                 Michael%Beil%NULL%1,                                 Sigal%Sviri%NULL%1,                                 Raphael Romano%Bruno%NULL%1,                                 Bernhard%Wernly%NULL%1,                                 Antonio%Artigas%NULL%1,                                 Bernardo Bollen%Pinto%NULL%1,                                 Joerg C.%Schefold%NULL%1,                                 Dorota%Studzińska%NULL%1,                                 Michael%Joannidis%NULL%1,                                 Sandra%Oeyen%NULL%1,                                 Brian%Marsh%NULL%1,                                 Finn H.%Andersen%NULL%1,                                 Rui%Moreno%NULL%1,                                 Maurizio%Cecconi%NULL%1,                                 Christian%Jung%NULL%1,                                 Wojciech%Szczeklik%NULL%1,                                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                                 Marc%Tobed%NULL%1,                                 José Miguel%Villacampa%NULL%1,                                 Adriana%Agüero%NULL%1,                                 Clara%García‐Bastida%NULL%1,                                 José Ignacio%Tato%NULL%1,                                 Laura%Rodrigáñez%NULL%1,                                 Victoria Duque%Holguera%NULL%1,                                 Estefanía%Hernández‐García%NULL%1,                                 Daniel%Poletti%NULL%1,                                 Gabriela%Simonetti%NULL%1,                                 Vanessa%Villarraga%NULL%1,                                 Carla%Meler‐Claramonte%NULL%1,                                 Álvaro%Sánchez Barrueco%NULL%1,                                 Carlos%Chiesa‐Estomba%NULL%1,                                 Maria%Casasayas%NULL%1,                                 Pablo%Parente‐Arias%NULL%1,                                 Nieves%Mata‐Castro%NULL%1,                                 Jordi%Rello%NULL%1,                                 Pedro%Castro%NULL%1,                                 Daniel%Prieto‐Alhambra%NULL%1,                                 Isabel%Vilaseca%NULL%1,                                 Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                                 P.%Stritoni%NULL%1,                                 I.%Battel%NULL%1,                                 B.%Zennaro%NULL%1,                                 F.%Lazzari%NULL%1,                                 M.%Bellin%NULL%1,                                 L.%Michieletto%NULL%1,                                 G.%Spinato%NULL%1,                                 C.%Busatto%NULL%1,                                 D.%Politi%NULL%1,                                 R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                                 Francesco%Missale%NULL%1,                                 Irene%Schiavetti%NULL%1,                                 Marta%Filauro%NULL%1,                                 Francesca%Iannuzzi%NULL%1,                                 Alessandro%Ascoli%NULL%1,                                 Alberto%Bertazzoli%NULL%1,                                 Federico%Pascucci%NULL%1,                                 Salvatore%Grasso%NULL%1,                                 Francesco%Murgolo%NULL%1,                                 Simone%Binda%NULL%1,                                 Davide%Maraggia%NULL%1,                                 Giorgia%Montrucchio%NULL%1,                                 Gabriele%Sales%NULL%1,                                 Giuseppe%Pascarella%NULL%1,                                 Felice Eugenio%Agrò%NULL%1,                                 Gaia%Faccio%NULL%1,                                 Sandra%Ferraris%NULL%1,                                 Savino%Spadaro%NULL%1,                                 Giulia%Falò%NULL%1,                                 Nadia%Mereto%NULL%1,                                 Alessandro%Uva%NULL%1,                                 Jessica Giuseppina%Maugeri%NULL%1,                                 Bellissima%Agrippino%NULL%1,                                 Maria%Vargas%NULL%1,                                 Giuseppe%Servillo%NULL%1,                                 Chiara%Robba%NULL%1,                                 Lorenzo%Ball%NULL%1,                                 Francesco%Mora%NULL%1,                                 Alessio%Signori%NULL%1,                                 Antoni%Torres%NULL%1,                                 Daniele Roberto%Giacobbe%NULL%1,                                 Antonio%Vena%NULL%1,                                 Matteo%Bassetti%NULL%1,                                 Giorgio%Peretti%NULL%1,                                 Patricia R. M.%Rocco%NULL%1,                                 Paolo%Pelosi%NULL%1,                                 Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                                 Paul%Nankivell%NULL%1,                                 Neil%Sharma%NULL%1,                                 Mansoor N.%Bangash%NULL%1,                                 Camilla%Dawson%NULL%1,                                 Matthew%Idle%NULL%1,                                 Peter%Isherwood%NULL%1,                                 Christopher%Jennings%NULL%1,                                 Damian%Keene%NULL%1,                                 Mav%Manji%NULL%1,                                 Tim%Martin%NULL%1,                                 Rob%Moss%NULL%1,                                 Nick%Murphy%NULL%1,                                 Dhruv%Parekh%NULL%1,                                 Sat%Parmar%NULL%1,                                 Jaimin%Patel%NULL%1,                                 Paul%Pracy%NULL%1,                                 Prav%Praveen%NULL%1,                                 Carla%Richardson%NULL%1,                                 Alex%Richter%NULL%1,                                 Rajneesh%Sachdeva%NULL%1,                                 Adrian%Shields%NULL%1,                                 Somiah%Siddiq%NULL%1,                                 Simon%Smart%NULL%1,                                 Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                                 Yoshihisa%Miyamoto%NULL%1,                                 Matsuo%So%NULL%1,                                 Masao%Iwagami%NULL%1,                                 Mai%Takahashi%NULL%1,                                 Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                                 George Z.%Cheng%NULL%1,                                 Keriann%Van Nostrand%NULL%1,                                 Samira%Shojaee%NULL%1,                                 Max T.%Wayne%NULL%1,                                 Matthew%Abbott%NULL%1,                                 Darrell%Nettlow%NULL%1,                                 Alice%Parish%NULL%1,                                 Cynthia L.%Green%NULL%1,                                 Javeryah%Safi%NULL%1,                                 Michael J.%Brenner%NULL%1,                                 Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                                 C%Tornari%NULL%1,                                 N%Amin%NULL%1,                                 D%Wyncoll%NULL%1,                                 S%Tricklebank%NULL%1,                                 A%Arora%NULL%1,                                 I%Ahmad%NULL%1,                                 R%Simo%NULL%1,                                 P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                                 Yongran%Wu%NULL%1,                                 Fangfang%Zhu%NULL%1,                                 Xiaobo%Yang%NULL%1,                                 Chaolin%Huang%NULL%1,                                 Guo%Hou%NULL%1,                                 Wenhao%Xu%NULL%1,                                 Ming%Hu%NULL%1,                                 Lu%Zhang%NULL%1,                                 Aiguo%Cheng%NULL%1,                                 Zhengqin%Xu%NULL%1,                                 Boyi%Liu%NULL%1,                                 Song%Hu%NULL%1,                                 Guochao%Zhu%NULL%1,                                 Xuepeng%Fan%NULL%1,                                 Xijing%Zhang%NULL%1,                                 Yadong%Yang%NULL%1,                                 Huibin%Feng%NULL%1,                                 Lixia%Yu%NULL%1,                                 Bing%Wang%NULL%1,                                 Zhiqiang%Li%NULL%1,                                 Yong%Peng%NULL%1,                                 Zubo%Shen%NULL%1,                                 Shouzhi%Fu%NULL%1,                                 Yaqi%Ouyang%NULL%1,                                 Jiqian%Xu%NULL%1,                                 Xiaojing%Zou%NULL%1,                                 Minghao%Fang%NULL%1,                                 Zhui%Yu%NULL%1,                                 Bo%Hu%NULL%1,                                 You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%1,                                  Jakub%Fronczek%NULL%1,                                  Peter Vernon%van Heerden%NULL%1,                                  Hans%Flaatten%NULL%1,                                  Bertrand%Guidet%NULL%1,                                  Dylan W.%De Lange%NULL%1,                                  Jesper%Fjølner%NULL%1,                                  Susannah%Leaver%NULL%1,                                  Michael%Beil%NULL%1,                                  Sigal%Sviri%NULL%1,                                  Raphael Romano%Bruno%NULL%1,                                  Bernhard%Wernly%NULL%1,                                  Antonio%Artigas%NULL%1,                                  Bernardo Bollen%Pinto%NULL%1,                                  Joerg C.%Schefold%NULL%1,                                  Dorota%Studzińska%NULL%1,                                  Michael%Joannidis%NULL%1,                                  Sandra%Oeyen%NULL%1,                                  Brian%Marsh%NULL%1,                                  Finn H.%Andersen%NULL%1,                                  Rui%Moreno%NULL%1,                                  Maurizio%Cecconi%NULL%1,                                  Christian%Jung%NULL%1,                                  Wojciech%Szczeklik%NULL%1,                                  NULL%NULL%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%1,                                  Marc%Tobed%NULL%1,                                  José Miguel%Villacampa%NULL%1,                                  Adriana%Agüero%NULL%1,                                  Clara%García‐Bastida%NULL%1,                                  José Ignacio%Tato%NULL%1,                                  Laura%Rodrigáñez%NULL%1,                                  Victoria Duque%Holguera%NULL%1,                                  Estefanía%Hernández‐García%NULL%1,                                  Daniel%Poletti%NULL%1,                                  Gabriela%Simonetti%NULL%1,                                  Vanessa%Villarraga%NULL%1,                                  Carla%Meler‐Claramonte%NULL%1,                                  Álvaro%Sánchez Barrueco%NULL%1,                                  Carlos%Chiesa‐Estomba%NULL%1,                                  Maria%Casasayas%NULL%1,                                  Pablo%Parente‐Arias%NULL%1,                                  Nieves%Mata‐Castro%NULL%1,                                  Jordi%Rello%NULL%1,                                  Pedro%Castro%NULL%1,                                  Daniel%Prieto‐Alhambra%NULL%1,                                  Isabel%Vilaseca%NULL%1,                                  Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%1,                                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%1,                                  P.%Stritoni%NULL%1,                                  I.%Battel%NULL%1,                                  B.%Zennaro%NULL%1,                                  F.%Lazzari%NULL%1,                                  M.%Bellin%NULL%1,                                  L.%Michieletto%NULL%1,                                  G.%Spinato%NULL%1,                                  C.%Busatto%NULL%1,                                  D.%Politi%NULL%1,                                  R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%1,                                  Francesco%Missale%NULL%1,                                  Irene%Schiavetti%NULL%1,                                  Marta%Filauro%NULL%1,                                  Francesca%Iannuzzi%NULL%1,                                  Alessandro%Ascoli%NULL%1,                                  Alberto%Bertazzoli%NULL%1,                                  Federico%Pascucci%NULL%1,                                  Salvatore%Grasso%NULL%1,                                  Francesco%Murgolo%NULL%1,                                  Simone%Binda%NULL%1,                                  Davide%Maraggia%NULL%1,                                  Giorgia%Montrucchio%NULL%1,                                  Gabriele%Sales%NULL%1,                                  Giuseppe%Pascarella%NULL%1,                                  Felice Eugenio%Agrò%NULL%1,                                  Gaia%Faccio%NULL%1,                                  Sandra%Ferraris%NULL%1,                                  Savino%Spadaro%NULL%1,                                  Giulia%Falò%NULL%1,                                  Nadia%Mereto%NULL%1,                                  Alessandro%Uva%NULL%1,                                  Jessica Giuseppina%Maugeri%NULL%1,                                  Bellissima%Agrippino%NULL%1,                                  Maria%Vargas%NULL%1,                                  Giuseppe%Servillo%NULL%1,                                  Chiara%Robba%NULL%1,                                  Lorenzo%Ball%NULL%1,                                  Francesco%Mora%NULL%1,                                  Alessio%Signori%NULL%1,                                  Antoni%Torres%NULL%1,                                  Daniele Roberto%Giacobbe%NULL%1,                                  Antonio%Vena%NULL%1,                                  Matteo%Bassetti%NULL%1,                                  Giorgio%Peretti%NULL%1,                                  Patricia R. M.%Rocco%NULL%1,                                  Paolo%Pelosi%NULL%1,                                  Jihad%Mallat%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%1,                                  Paul%Nankivell%NULL%1,                                  Neil%Sharma%NULL%1,                                  Mansoor N.%Bangash%NULL%1,                                  Camilla%Dawson%NULL%1,                                  Matthew%Idle%NULL%1,                                  Peter%Isherwood%NULL%1,                                  Christopher%Jennings%NULL%1,                                  Damian%Keene%NULL%1,                                  Mav%Manji%NULL%1,                                  Tim%Martin%NULL%1,                                  Rob%Moss%NULL%1,                                  Nick%Murphy%NULL%1,                                  Dhruv%Parekh%NULL%1,                                  Sat%Parmar%NULL%1,                                  Jaimin%Patel%NULL%1,                                  Paul%Pracy%NULL%1,                                  Prav%Praveen%NULL%1,                                  Carla%Richardson%NULL%1,                                  Alex%Richter%NULL%1,                                  Rajneesh%Sachdeva%NULL%1,                                  Adrian%Shields%NULL%1,                                  Somiah%Siddiq%NULL%1,                                  Simon%Smart%NULL%1,                                  Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%1,                                  Yoshihisa%Miyamoto%NULL%1,                                  Matsuo%So%NULL%1,                                  Masao%Iwagami%NULL%1,                                  Mai%Takahashi%NULL%1,                                  Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%1,                                  George Z.%Cheng%NULL%1,                                  Keriann%Van Nostrand%NULL%1,                                  Samira%Shojaee%NULL%1,                                  Max T.%Wayne%NULL%1,                                  Matthew%Abbott%NULL%1,                                  Darrell%Nettlow%NULL%1,                                  Alice%Parish%NULL%1,                                  Cynthia L.%Green%NULL%1,                                  Javeryah%Safi%NULL%1,                                  Michael J.%Brenner%NULL%1,                                  Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%1,                                  C%Tornari%NULL%1,                                  N%Amin%NULL%1,                                  D%Wyncoll%NULL%1,                                  S%Tricklebank%NULL%1,                                  A%Arora%NULL%1,                                  I%Ahmad%NULL%1,                                  R%Simo%NULL%1,                                  P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%1,                                  Yongran%Wu%NULL%1,                                  Fangfang%Zhu%NULL%1,                                  Xiaobo%Yang%NULL%1,                                  Chaolin%Huang%NULL%1,                                  Guo%Hou%NULL%1,                                  Wenhao%Xu%NULL%1,                                  Ming%Hu%NULL%1,                                  Lu%Zhang%NULL%1,                                  Aiguo%Cheng%NULL%1,                                  Zhengqin%Xu%NULL%1,                                  Boyi%Liu%NULL%1,                                  Song%Hu%NULL%1,                                  Guochao%Zhu%NULL%1,                                  Xuepeng%Fan%NULL%1,                                  Xijing%Zhang%NULL%1,                                  Yadong%Yang%NULL%1,                                  Huibin%Feng%NULL%1,                                  Lixia%Yu%NULL%1,                                  Bing%Wang%NULL%1,                                  Zhiqiang%Li%NULL%1,                                  Yong%Peng%NULL%1,                                  Zubo%Shen%NULL%1,                                  Shouzhi%Fu%NULL%1,                                  Yaqi%Ouyang%NULL%1,                                  Jiqian%Xu%NULL%1,                                  Xiaojing%Zou%NULL%1,                                  Minghao%Fang%NULL%1,                                  Zhui%Yu%NULL%1,                                  Bo%Hu%NULL%1,                                  You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kamil%Polok%NULL%0, Jakub%Fronczek%NULL%1, Peter Vernon%van Heerden%NULL%1, Hans%Flaatten%NULL%2, Bertrand%Guidet%NULL%2, Dylan W.%De Lange%NULL%1, Jesper%Fjølner%NULL%2, Susannah%Leaver%NULL%1, Michael%Beil%NULL%1, Sigal%Sviri%NULL%3, Raphael Romano%Bruno%NULL%2, Bernhard%Wernly%NULL%2, Antonio%Artigas%NULL%2, Bernardo Bollen%Pinto%NULL%2, Joerg C.%Schefold%NULL%1, Dorota%Studzińska%NULL%1, Michael%Joannidis%NULL%2, Sandra%Oeyen%NULL%2, Brian%Marsh%NULL%2, Finn H.%Andersen%NULL%1, Rui%Moreno%NULL%2, Maurizio%Cecconi%NULL%4, Christian%Jung%NULL%0, Wojciech%Szczeklik%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>British Journal of Anaesthesia. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Albert%Prats‐Uribe%NULL%0, Marc%Tobed%NULL%2, Marc%Tobed%NULL%0, José Miguel%Villacampa%NULL%1, Adriana%Agüero%NULL%1, Clara%García‐Bastida%NULL%1, José Ignacio%Tato%NULL%1, Laura%Rodrigáñez%NULL%1, Victoria Duque%Holguera%NULL%1, Estefanía%Hernández‐García%NULL%1, Daniel%Poletti%NULL%2, Daniel%Poletti%NULL%0, Gabriela%Simonetti%NULL%1, Vanessa%Villarraga%NULL%1, Carla%Meler‐Claramonte%NULL%1, Álvaro%Sánchez Barrueco%NULL%1, Carlos%Chiesa‐Estomba%NULL%2, Carlos%Chiesa‐Estomba%NULL%0, Maria%Casasayas%NULL%2, Maria%Casasayas%NULL%0, Pablo%Parente‐Arias%NULL%2, Pablo%Parente‐Arias%NULL%0, Nieves%Mata‐Castro%NULL%1, Jordi%Rello%NULL%0, Pedro%Castro%NULL%4, Daniel%Prieto‐Alhambra%NULL%1, Isabel%Vilaseca%NULL%1, Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%2, Francesc Xavier%Avilés‐Jurado%faviles@clinic.cat%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Inc.</t>
+  </si>
+  <si>
+    <t>[T.%Volo%tizianavolo@icloud.com%0, P.%Stritoni%NULL%2, P.%Stritoni%NULL%0, I.%Battel%NULL%1, B.%Zennaro%NULL%1, F.%Lazzari%NULL%1, M.%Bellin%NULL%1, L.%Michieletto%NULL%1, G.%Spinato%NULL%1, C.%Busatto%NULL%1, D.%Politi%NULL%1, R.%Spinato%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Tracheostomy can be performed safely in patients with coronavirus disease 2019 (COVID-19).
+ However, little is known about the optimal timing, effects on outcome, and complications.
+ Methods: A multicenter, retrospective, observational study.
+ This study included 153 tracheostomized COVID-19 patients from 11 intensive care units (ICUs).
+ The primary endpoint was the median time to tracheostomy in critically ill COVID-19 patients.
+ Secondary endpoints were survival rate, length of ICU stay, and post-tracheostomy complications, stratified by tracheostomy timing (early versus late) and technique (surgical versus percutaneous).
+ Results: The median time to tracheostomy was 15 (1–64) days.
+ There was no significant difference in survival between critically ill COVID-19 patients who received tracheostomy before versus after day 15, nor between surgical and percutaneous techniques.
+ ICU length of stay was shorter with early compared to late tracheostomy (p &amp;lt; 0.001) and percutaneous compared to surgical tracheostomy (p = 0.050).
+ The rate of lower respiratory tract infections was higher with surgical versus percutaneous technique (p = 0.007).
+ Conclusions: Among critically ill patients with COVID-19, neither early nor percutaneous tracheostomy improved outcomes, but did shorten ICU stay.
+ Infectious complications were less frequent with percutaneous than surgical tracheostomy.
+</t>
+  </si>
+  <si>
+    <t>[Denise%Battaglini%NULL%0, Francesco%Missale%NULL%2, Francesco%Missale%NULL%0, Irene%Schiavetti%NULL%2, Irene%Schiavetti%NULL%0, Marta%Filauro%NULL%2, Marta%Filauro%NULL%0, Francesca%Iannuzzi%NULL%2, Francesca%Iannuzzi%NULL%0, Alessandro%Ascoli%NULL%1, Alberto%Bertazzoli%NULL%2, Alberto%Bertazzoli%NULL%0, Federico%Pascucci%NULL%1, Salvatore%Grasso%NULL%1, Francesco%Murgolo%NULL%1, Simone%Binda%NULL%1, Davide%Maraggia%NULL%1, Giorgia%Montrucchio%NULL%1, Gabriele%Sales%NULL%2, Gabriele%Sales%NULL%0, Giuseppe%Pascarella%NULL%2, Giuseppe%Pascarella%NULL%0, Felice Eugenio%Agrò%NULL%2, Felice Eugenio%Agrò%NULL%0, Gaia%Faccio%NULL%1, Sandra%Ferraris%NULL%1, Savino%Spadaro%NULL%3, Giulia%Falò%NULL%2, Giulia%Falò%NULL%0, Nadia%Mereto%NULL%1, Alessandro%Uva%NULL%1, Jessica Giuseppina%Maugeri%NULL%1, Bellissima%Agrippino%NULL%1, Maria%Vargas%NULL%2, Maria%Vargas%NULL%0, Giuseppe%Servillo%NULL%1, Chiara%Robba%NULL%1, Lorenzo%Ball%NULL%1, Francesco%Mora%NULL%1, Alessio%Signori%NULL%2, Antoni%Torres%NULL%4, Antoni%Torres%NULL%0, Daniele Roberto%Giacobbe%NULL%3, Daniele Roberto%Giacobbe%NULL%0, Antonio%Vena%NULL%4, Antonio%Vena%NULL%0, Matteo%Bassetti%NULL%4, Matteo%Bassetti%NULL%0, Giorgio%Peretti%NULL%1, Patricia R. M.%Rocco%NULL%1, Paolo%Pelosi%NULL%3, Paolo%Pelosi%NULL%0, Jihad%Mallat%NULL%2, Jihad%Mallat%NULL%0]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Omar%Breik%NULL%0, Paul%Nankivell%NULL%1, Neil%Sharma%NULL%2, Mansoor N.%Bangash%NULL%1, Camilla%Dawson%NULL%1, Matthew%Idle%NULL%1, Peter%Isherwood%NULL%1, Christopher%Jennings%NULL%1, Damian%Keene%NULL%1, Mav%Manji%NULL%1, Tim%Martin%NULL%1, Rob%Moss%NULL%1, Nick%Murphy%NULL%1, Dhruv%Parekh%NULL%1, Sat%Parmar%NULL%1, Jaimin%Patel%NULL%1, Paul%Pracy%NULL%1, Prav%Praveen%NULL%1, Carla%Richardson%NULL%1, Alex%Richter%NULL%1, Rajneesh%Sachdeva%NULL%1, Adrian%Shields%NULL%1, Somiah%Siddiq%NULL%1, Simon%Smart%NULL%1, Laura%Tasker%NULL%1]</t>
+  </si>
+  <si>
+    <t>id="Par1"&gt;Tracheostomy is performed for critically ill patients with prolonged endotracheal intubation including COVID-19 to mitigate the risk of airway complications.
+ We analyzed the difference in mortality of COVID-19 patients undergoing early tracheostomy within 14 days of intubation compared to later tracheostomy than 14 days after intubation.
+ The mortality was not significantly higher in early tracheostomy compared to later tracheostomy</t>
+  </si>
+  <si>
+    <t>[Toshiki%Kuno%kuno-toshiki@hotmail.co.jp%0, Yoshihisa%Miyamoto%NULL%1, Matsuo%So%NULL%1, Masao%Iwagami%NULL%1, Mai%Takahashi%NULL%1, Natalia N.%Egorova%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer India</t>
+  </si>
+  <si>
+    <t>[Kamran%Mahmood%NULL%0, George Z.%Cheng%NULL%1, Keriann%Van Nostrand%NULL%1, Samira%Shojaee%NULL%1, Max T.%Wayne%NULL%1, Matthew%Abbott%NULL%1, Darrell%Nettlow%NULL%1, Alice%Parish%NULL%1, Cynthia L.%Green%NULL%1, Javeryah%Safi%NULL%1, Michael J.%Brenner%NULL%1, Jose%De Cardenas%NULL%1]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[A%Takhar%NULL%0, C%Tornari%NULL%1, N%Amin%NULL%1, D%Wyncoll%NULL%1, S%Tricklebank%NULL%1, A%Arora%NULL%1, I%Ahmad%NULL%1, R%Simo%NULL%1, P%Surda%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The outbreak of coronavirus disease 2019 (COVID-19) has led to a large and increasing number of patients requiring prolonged mechanical ventilation and tracheostomy.
+ The indication and optimal timing of tracheostomy in COVID-19 patients are still unclear, and the outcomes about tracheostomy have not been extensively reported.
+ We aimed to describe the clinical characteristics and outcomes of patients with confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) pneumonia who underwent elective tracheostomies.
+</t>
+  </si>
+  <si>
+    <t>[Yun%Tang%NULL%0, Yongran%Wu%NULL%0, Fangfang%Zhu%NULL%1, Xiaobo%Yang%NULL%0, Chaolin%Huang%NULL%0, Guo%Hou%NULL%1, Wenhao%Xu%NULL%1, Ming%Hu%NULL%0, Lu%Zhang%NULL%0, Aiguo%Cheng%NULL%3, Zhengqin%Xu%NULL%2, Boyi%Liu%NULL%1, Song%Hu%NULL%5, Guochao%Zhu%NULL%6, Xuepeng%Fan%NULL%1, Xijing%Zhang%NULL%2, Yadong%Yang%NULL%1, Huibin%Feng%NULL%1, Lixia%Yu%NULL%1, Bing%Wang%NULL%1, Zhiqiang%Li%NULL%1, Yong%Peng%NULL%3, Zubo%Shen%NULL%1, Shouzhi%Fu%NULL%9, Yaqi%Ouyang%NULL%6, Jiqian%Xu%NULL%0, Xiaojing%Zou%NULL%0, Minghao%Fang%NULL%0, Zhui%Yu%NULL%0, Bo%Hu%NULL%4, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
   </si>
 </sst>
 </file>
@@ -2038,25 +2169,25 @@
         <v>44112.0</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>385</v>
+        <v>189</v>
       </c>
       <c r="J2" t="s">
         <v>189</v>
@@ -2070,28 +2201,28 @@
         <v>44182.0</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>189</v>
       </c>
       <c r="J3" t="s">
-        <v>415</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -2108,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2120,10 +2251,10 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2271,7 @@
         <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -2152,10 +2283,10 @@
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
@@ -2169,10 +2300,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -2184,10 +2315,10 @@
         <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
@@ -2198,28 +2329,28 @@
         <v>44378.0</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>420</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
@@ -2233,10 +2364,10 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="E8" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="F8" t="s">
         <v>45</v>
@@ -2248,10 +2379,10 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9">
@@ -2268,7 +2399,7 @@
         <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -2280,10 +2411,10 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="J9" t="s">
-        <v>189</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10">
@@ -2297,10 +2428,10 @@
         <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>307</v>
+        <v>515</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -2312,10 +2443,10 @@
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11">
@@ -2332,7 +2463,7 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="F11" t="s">
         <v>60</v>
@@ -2344,10 +2475,10 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12">
@@ -2364,7 +2495,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="F12" t="s">
         <v>64</v>
@@ -2376,10 +2507,10 @@
         <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13">
@@ -2393,10 +2524,10 @@
         <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="E13" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="F13" t="s">
         <v>69</v>
@@ -2408,10 +2539,10 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>390</v>
+        <v>189</v>
       </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
